--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\projeto-metrologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>Backlog do Projeto</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Possibilitar que os usuários possam consultar os dados armazenados pelo sensor</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -328,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +378,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -705,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,24 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -853,6 +852,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,41 +1154,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E15:E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1192084</v>
       </c>
@@ -1184,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1192099</v>
       </c>
@@ -1192,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1192091</v>
       </c>
@@ -1200,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1192027</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1192079</v>
       </c>
@@ -1216,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>1192107</v>
       </c>
@@ -1224,281 +1248,322 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="G14" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19">
+      <c r="E15" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19">
+      <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="H16" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="19">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="19">
+      <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="19">
+      <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="53">
+      <c r="E20" s="47">
         <v>21</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="19">
+      <c r="E21" s="19">
         <v>21</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
+      <c r="E22" s="19">
         <v>21</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="19">
+      <c r="E23" s="19">
         <v>21</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="19">
+      <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="19">
+      <c r="E25" s="19">
         <v>13</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="19">
+      <c r="E26" s="19">
         <v>21</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="F28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="G28" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>29</v>
       </c>
@@ -1506,17 +1571,20 @@
         <v>71</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="19">
+      <c r="E29" s="19">
         <v>13</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="13"/>
+      <c r="G29" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>30</v>
       </c>
@@ -1524,17 +1592,20 @@
         <v>78</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="19">
+      <c r="E30" s="19">
         <v>5</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="13"/>
+      <c r="G30" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -1542,17 +1613,20 @@
         <v>79</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="19">
+      <c r="E31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="13"/>
+      <c r="G31" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -1560,17 +1634,20 @@
         <v>80</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="19">
+      <c r="E32" s="19">
         <v>5</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="13"/>
+      <c r="G32" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>37</v>
       </c>
@@ -1578,17 +1655,20 @@
         <v>81</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="19">
+      <c r="E33" s="19">
         <v>5</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="13"/>
+      <c r="G33" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
@@ -1596,17 +1676,20 @@
         <v>82</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="19">
+      <c r="E34" s="19">
         <v>3</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="13"/>
+      <c r="G34" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1614,17 +1697,20 @@
         <v>83</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="19">
+      <c r="E35" s="19">
         <v>3</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="13"/>
+      <c r="G35" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>43</v>
       </c>
@@ -1632,17 +1718,20 @@
         <v>84</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="19">
+      <c r="E36" s="19">
         <v>21</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="13"/>
+      <c r="G36" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>45</v>
       </c>
@@ -1650,17 +1739,20 @@
         <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="19">
+      <c r="E37" s="19">
         <v>21</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="13"/>
+      <c r="G37" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>47</v>
       </c>
@@ -1668,17 +1760,20 @@
         <v>85</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="19">
+      <c r="E38" s="19">
         <v>13</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="13"/>
+      <c r="G38" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>49</v>
       </c>
@@ -1686,17 +1781,20 @@
         <v>95</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="19">
+      <c r="E39" s="19">
         <v>8</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="13"/>
+      <c r="G39" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>90</v>
       </c>
@@ -1704,17 +1802,20 @@
         <v>86</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="19">
+      <c r="E40" s="19">
         <v>21</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="13"/>
+      <c r="G40" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
@@ -1722,137 +1823,157 @@
         <v>55</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="19">
+      <c r="E41" s="19">
         <v>21</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="13"/>
+      <c r="G41" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="E43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="F43" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="G43" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="19">
+      <c r="E44" s="19">
         <v>8</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="19">
+      <c r="E45" s="19">
         <v>13</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="F45" s="25"/>
+      <c r="G45" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="39">
+      <c r="E46" s="33">
         <v>8</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="37"/>
+      <c r="D47" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="E47" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="F47" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="G47" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="48">
+      <c r="E48" s="42">
         <v>5</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="49"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="43" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1890,7 +2011,7 @@
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>Backlog do Projeto</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Raphael Bachega</t>
   </si>
   <si>
-    <t>Caio Cezar</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -261,12 +258,6 @@
     <t>Construir código no arduino.</t>
   </si>
   <si>
-    <t>Desejável</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vaso ter conexão com wi-fi </t>
-  </si>
-  <si>
     <t>Criar uma tela institucional deverá ter história da empresa</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>Configurar o banco de dados no Azure com tabelas sobre informações de clientes, produtos e plantas.</t>
   </si>
   <si>
-    <t>Outros</t>
-  </si>
-  <si>
     <t>Fazer as recomendações feitas pela empresa de acordo com as particularidades de cada planta (Premium)</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>RS14</t>
   </si>
   <si>
-    <t>OU1</t>
-  </si>
-  <si>
     <t>1ªSprint</t>
   </si>
   <si>
@@ -328,6 +313,30 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Caio Cesar</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Fazer planilha de riscos do projeto</t>
+  </si>
+  <si>
+    <t>Bachega</t>
+  </si>
+  <si>
+    <t>Fazer  o Banco de Dados no Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caio </t>
+  </si>
+  <si>
+    <t>Carina e duda</t>
+  </si>
+  <si>
+    <t>Caio</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +395,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -722,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,26 +869,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,27 +1189,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="54"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -1245,7 +1264,7 @@
         <v>1192107</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,280 +1276,300 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="27" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="E15" s="19">
         <v>5</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G15" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G16" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G17" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G18" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="G19" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="47">
         <v>21</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="G20" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="19">
         <v>21</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G21" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="19">
         <v>21</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>99</v>
+      </c>
       <c r="G22" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="19">
         <v>21</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G23" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="19">
         <v>13</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="19">
         <v>21</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1544,296 +1583,310 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="G28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="19">
         <v>13</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G29" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="19">
         <v>5</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G30" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="19">
         <v>5</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G31" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="19">
         <v>5</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G32" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="19">
         <v>5</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G33" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="19">
         <v>3</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="G34" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="19">
         <v>3</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="G35" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="19">
         <v>21</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="19">
         <v>21</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="19">
         <v>13</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="19">
         <v>8</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="19">
         <v>21</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="19">
         <v>21</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1847,129 +1900,111 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="F43" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="G43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="19">
         <v>8</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="G44" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="19">
         <v>13</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="33">
         <v>8</v>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="G46" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="42">
-        <v>5</v>
-      </c>
+      <c r="A48" s="44"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="46"/>
-      <c r="G48" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="G48" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1996,68 +2031,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2068,67 +2103,67 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2136,17 +2171,17 @@
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="103">
   <si>
     <t>Backlog do Projeto</t>
   </si>
@@ -333,10 +333,13 @@
     <t xml:space="preserve">Caio </t>
   </si>
   <si>
-    <t>Carina e duda</t>
-  </si>
-  <si>
     <t>Caio</t>
+  </si>
+  <si>
+    <t>3º Sprint</t>
+  </si>
+  <si>
+    <t>Requisitos Pendentes:</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +383,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -402,6 +406,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -722,15 +733,241 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="7"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,16 +1092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,26 +1099,109 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,6 +1218,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>902891</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1160860</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Multiplicar 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439922" y="8483203"/>
+          <a:ext cx="257969" cy="257969"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962422</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1220391</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Multiplicar 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11499453" y="9217422"/>
+          <a:ext cx="257969" cy="257969"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>926307</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>281384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1184276</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Multiplicar 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11463338" y="10143728"/>
+          <a:ext cx="257969" cy="257969"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,27 +1675,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -1290,7 +1776,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -1313,10 +1799,10 @@
       <c r="E15" s="19">
         <v>5</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="56" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1336,10 +1822,10 @@
       <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="57" t="s">
         <v>88</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -1362,10 +1848,10 @@
       <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="57" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1385,10 +1871,10 @@
       <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="57" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1411,7 +1897,7 @@
       <c r="F19" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="57" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1428,13 +1914,13 @@
       <c r="D20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="43">
         <v>21</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="57" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1454,10 +1940,10 @@
       <c r="E21" s="19">
         <v>21</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1480,7 +1966,7 @@
       <c r="F22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1500,10 +1986,10 @@
       <c r="E23" s="19">
         <v>21</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1523,14 +2009,14 @@
       <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>25</v>
       </c>
@@ -1546,8 +2032,10 @@
       <c r="E25" s="19">
         <v>13</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1568,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1579,7 +2067,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="19"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
@@ -1595,7 +2083,7 @@
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="60" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="28" t="s">
@@ -1618,10 +2106,10 @@
       <c r="E29" s="19">
         <v>13</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1641,14 +2129,14 @@
       <c r="E30" s="19">
         <v>5</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1664,21 +2152,21 @@
       <c r="E31" s="19">
         <v>5</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -1687,10 +2175,10 @@
       <c r="E32" s="19">
         <v>5</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1710,14 +2198,14 @@
       <c r="E33" s="19">
         <v>5</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
@@ -1733,14 +2221,14 @@
       <c r="E34" s="19">
         <v>3</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -1756,18 +2244,18 @@
       <c r="E35" s="19">
         <v>3</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -1776,16 +2264,16 @@
       <c r="D36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="53">
         <v>21</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1800,13 +2288,15 @@
       <c r="E37" s="19">
         <v>21</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1821,13 +2311,13 @@
       <c r="E38" s="19">
         <v>13</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="25"/>
+      <c r="G38" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="46" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1842,13 +2332,13 @@
       <c r="E39" s="19">
         <v>8</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1863,40 +2353,42 @@
       <c r="E40" s="19">
         <v>21</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="25"/>
+      <c r="G40" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="51">
         <v>21</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="20"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
@@ -1935,7 +2427,7 @@
       <c r="E44" s="19">
         <v>8</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="45" t="s">
         <v>95</v>
       </c>
       <c r="G44" s="25" t="s">
@@ -1982,13 +2474,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
@@ -1997,14 +2489,198 @@
       <c r="F47" s="37"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="43"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="56" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B56" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="76">
+        <v>8</v>
+      </c>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="65">
+        <v>8</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="19">
+        <v>21</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="47">
+        <v>21</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="19">
+        <v>21</v>
+      </c>
+      <c r="F62" s="47"/>
+      <c r="G62" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="19">
+        <v>13</v>
+      </c>
+      <c r="F63" s="47"/>
+      <c r="G63" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="19">
+        <v>8</v>
+      </c>
+      <c r="F64" s="47"/>
+      <c r="G64" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="19">
+        <v>21</v>
+      </c>
+      <c r="F65" s="47"/>
+      <c r="G65" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="74">
+        <v>8</v>
+      </c>
+      <c r="F66" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2012,6 +2688,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
